--- a/角色技能通信格式.xlsx
+++ b/角色技能通信格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610" tabRatio="773" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="01剑圣" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,15 @@
     <sheet name="07天使" sheetId="6" r:id="rId6"/>
     <sheet name="08魔导" sheetId="4" r:id="rId7"/>
     <sheet name="09魔剑" sheetId="8" r:id="rId8"/>
-    <sheet name="12冒险" sheetId="9" r:id="rId9"/>
+    <sheet name="11元素" sheetId="10" r:id="rId9"/>
+    <sheet name="12冒险" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="84">
   <si>
     <t>消息名称</t>
   </si>
@@ -380,6 +381,30 @@
   </si>
   <si>
     <t>目标玩家ID;源玩家ID;宝石数;水晶数；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素点燃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标玩家ID;源玩家ID;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag 1风2水3火4地5雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag；目标玩家ID;源玩家ID;牌数目；牌ID1；牌ID2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -881,6 +906,125 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="48.5" customWidth="1"/>
+    <col min="7" max="7" width="45.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2">
+        <v>1201</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3">
+        <v>1202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4">
+        <v>1203</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5">
+        <v>1204</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
@@ -1111,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1234,7 +1378,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1493,7 +1637,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1724,17 +1868,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="48.5" customWidth="1"/>
-    <col min="7" max="7" width="45.375" customWidth="1"/>
+    <col min="6" max="6" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -1762,10 +1904,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B2">
-        <v>1201</v>
+        <v>1101</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1774,15 +1916,18 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B3">
-        <v>1202</v>
+        <v>1102</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1791,18 +1936,15 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B4">
-        <v>1203</v>
+        <v>1103</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1811,27 +1953,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5">
-        <v>1204</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/角色技能通信格式.xlsx
+++ b/角色技能通信格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="01剑圣" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="09魔剑" sheetId="8" r:id="rId8"/>
     <sheet name="11元素" sheetId="10" r:id="rId9"/>
     <sheet name="12冒险" sheetId="9" r:id="rId10"/>
+    <sheet name="21勇者" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="89">
   <si>
     <t>消息名称</t>
   </si>
@@ -405,6 +406,26 @@
   </si>
   <si>
     <t>flag；目标玩家ID;源玩家ID;牌数目；牌ID1；牌ID2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒吼答复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明镜止水答复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死斗答复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁断之力答复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -910,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1025,12 +1046,153 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="25.875" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5">
+        <v>2101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6">
+        <v>2102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F2" sqref="F2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1255,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1870,7 +2032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/角色技能通信格式.xlsx
+++ b/角色技能通信格式.xlsx
@@ -17,14 +17,15 @@
     <sheet name="09魔剑" sheetId="8" r:id="rId8"/>
     <sheet name="11元素" sheetId="10" r:id="rId9"/>
     <sheet name="12冒险" sheetId="9" r:id="rId10"/>
-    <sheet name="21勇者" sheetId="11" r:id="rId11"/>
+    <sheet name="14仲裁" sheetId="12" r:id="rId11"/>
+    <sheet name="21勇者" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="103">
   <si>
     <t>消息名称</t>
   </si>
@@ -426,6 +427,83 @@
   </si>
   <si>
     <t>禁断之力答复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>广播</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单播</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪式中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0不发动；1发动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲裁仪式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末日审判</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标玩家ID;源玩家ID;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判决天平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0弃牌；1摸牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1048,9 +1126,129 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="25.75" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2">
+        <v>1401</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3">
+        <v>1402</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4">
+        <v>1403</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5">
+        <v>1404</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/角色技能通信格式.xlsx
+++ b/角色技能通信格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="01剑圣" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,15 @@
     <sheet name="11元素" sheetId="10" r:id="rId9"/>
     <sheet name="12冒险" sheetId="9" r:id="rId10"/>
     <sheet name="14仲裁" sheetId="12" r:id="rId11"/>
-    <sheet name="21勇者" sheetId="11" r:id="rId12"/>
+    <sheet name="16祈祷" sheetId="13" r:id="rId12"/>
+    <sheet name="21勇者" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="121">
   <si>
     <t>消息名称</t>
   </si>
@@ -306,14 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0水晶；1宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌ID;目标玩家ID;源ID;flag;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>封印法术</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -504,6 +497,85 @@
   </si>
   <si>
     <t>0弃牌；1摸牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈祷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威力赐福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅捷赐福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光辉信仰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漆黑信仰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力潮汐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标玩家ID;源玩家ID;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾风技额外行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙击额外行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌ID;目标玩家ID;源玩家ID;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源玩家ID;</t>
+  </si>
+  <si>
+    <t>风刃额外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陨石额外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点燃额外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标玩家ID;源玩家ID;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊加工额外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷天换日额外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag;源玩家ID;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精疲力竭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag;目标玩家ID;源玩家ID;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,14 +977,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="6" max="6" width="34.875" customWidth="1"/>
     <col min="7" max="7" width="15.375" customWidth="1"/>
@@ -975,7 +1048,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -992,10 +1065,24 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1007,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1045,7 +1132,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>1201</v>
@@ -1057,12 +1144,12 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>1202</v>
@@ -1074,7 +1161,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
@@ -1082,7 +1169,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>1203</v>
@@ -1094,7 +1181,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
         <v>47</v>
@@ -1102,7 +1189,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>1204</v>
@@ -1114,7 +1201,41 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6">
+        <v>1205</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>1206</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1128,7 +1249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
@@ -1149,7 +1270,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -1163,79 +1284,79 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2">
         <v>1401</v>
       </c>
       <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
         <v>91</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>92</v>
-      </c>
-      <c r="F2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3">
         <v>1402</v>
       </c>
       <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
         <v>96</v>
       </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" t="s">
-        <v>98</v>
-      </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4">
         <v>1403</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>1404</v>
       </c>
       <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s">
         <v>96</v>
       </c>
-      <c r="D5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" t="s">
-        <v>98</v>
-      </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1246,10 +1367,162 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="33.625" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>1601</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>1602</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4">
+        <v>1603</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>1604</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>1605</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7">
+        <v>1606</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1284,7 +1557,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -1304,7 +1577,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>36</v>
@@ -1324,7 +1597,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>36</v>
@@ -1344,7 +1617,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5">
         <v>2101</v>
@@ -1356,12 +1629,12 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6">
         <v>2102</v>
@@ -1377,6 +1650,23 @@
       </c>
       <c r="G6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7">
+        <v>2103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1491,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="A1:G5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1581,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -1602,6 +1892,23 @@
       </c>
       <c r="G5" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6">
+        <v>304</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1961,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>401</v>
@@ -1671,7 +1978,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>402</v>
@@ -1691,7 +1998,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>403</v>
@@ -1703,15 +2010,15 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>404</v>
@@ -2145,7 +2452,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>901</v>
@@ -2165,7 +2472,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>903</v>
@@ -2185,7 +2492,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>902</v>
@@ -2197,12 +2504,12 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>36</v>
@@ -2228,10 +2535,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2264,7 +2571,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>1101</v>
@@ -2276,15 +2583,15 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3">
         <v>1102</v>
@@ -2296,12 +2603,12 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>1103</v>
@@ -2313,7 +2620,58 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5">
+        <v>1104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6">
+        <v>1105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7">
+        <v>1106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/角色技能通信格式.xlsx
+++ b/角色技能通信格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="01剑圣" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="126">
   <si>
     <t>消息名称</t>
   </si>
@@ -504,78 +504,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>迅捷赐福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光辉信仰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漆黑信仰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力潮汐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标玩家ID;源玩家ID;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾风技额外行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙击额外行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌ID;目标玩家ID;源玩家ID;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源玩家ID;</t>
+  </si>
+  <si>
+    <t>风刃额外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陨石额外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点燃额外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标玩家ID;源玩家ID;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊加工额外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷天换日额外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag;源玩家ID;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精疲力竭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag;目标玩家ID;源玩家ID;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标玩家ID;源玩家ID;弃牌数；牌id1；牌id2；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅捷额外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源玩家id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答复威力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>威力赐福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迅捷赐福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光辉信仰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漆黑信仰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法力潮汐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标玩家ID;源玩家ID;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾风技额外行动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狙击额外行动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牌ID;目标玩家ID;源玩家ID;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>源玩家ID;</t>
-  </si>
-  <si>
-    <t>风刃额外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陨石额外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点燃额外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标玩家ID;源玩家ID;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊加工额外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偷天换日额外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag;源玩家ID;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精疲力竭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag;目标玩家ID;源玩家ID;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1048,7 +1068,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -1065,12 +1085,12 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>103</v>
@@ -1082,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1181,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G4" t="s">
         <v>47</v>
@@ -1206,7 +1226,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6">
         <v>1205</v>
@@ -1218,12 +1238,12 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7">
         <v>1206</v>
@@ -1235,7 +1255,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1367,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1425,7 +1445,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="B3">
         <v>1602</v>
@@ -1442,7 +1462,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4">
         <v>1603</v>
@@ -1459,7 +1479,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5">
         <v>1604</v>
@@ -1471,12 +1491,12 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6">
         <v>1605</v>
@@ -1488,12 +1508,12 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7">
         <v>1606</v>
@@ -1509,11 +1529,49 @@
       </c>
       <c r="G7" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8">
+        <v>1607</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9">
+        <v>1608</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1521,7 +1579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1629,7 +1687,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -1654,7 +1712,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7">
         <v>2103</v>
@@ -1666,7 +1724,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1871,7 +1929,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -1896,7 +1954,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6">
         <v>304</v>
@@ -1908,7 +1966,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +2474,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2620,12 +2678,12 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5">
         <v>1104</v>
@@ -2637,12 +2695,12 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <v>1105</v>
@@ -2654,12 +2712,12 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7">
         <v>1106</v>
@@ -2671,7 +2729,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/角色技能通信格式.xlsx
+++ b/角色技能通信格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="01剑圣" sheetId="1" r:id="rId1"/>
@@ -12,21 +12,24 @@
     <sheet name="03弓女" sheetId="3" r:id="rId3"/>
     <sheet name="04封印" sheetId="7" r:id="rId4"/>
     <sheet name="05暗杀" sheetId="5" r:id="rId5"/>
-    <sheet name="07天使" sheetId="6" r:id="rId6"/>
-    <sheet name="08魔导" sheetId="4" r:id="rId7"/>
-    <sheet name="09魔剑" sheetId="8" r:id="rId8"/>
-    <sheet name="11元素" sheetId="10" r:id="rId9"/>
-    <sheet name="12冒险" sheetId="9" r:id="rId10"/>
-    <sheet name="14仲裁" sheetId="12" r:id="rId11"/>
-    <sheet name="16祈祷" sheetId="13" r:id="rId12"/>
-    <sheet name="21勇者" sheetId="11" r:id="rId13"/>
+    <sheet name="06圣女" sheetId="14" r:id="rId6"/>
+    <sheet name="07天使" sheetId="6" r:id="rId7"/>
+    <sheet name="08魔导" sheetId="4" r:id="rId8"/>
+    <sheet name="09魔剑" sheetId="8" r:id="rId9"/>
+    <sheet name="10圣枪" sheetId="16" r:id="rId10"/>
+    <sheet name="11元素" sheetId="10" r:id="rId11"/>
+    <sheet name="12冒险" sheetId="9" r:id="rId12"/>
+    <sheet name="14仲裁" sheetId="12" r:id="rId13"/>
+    <sheet name="15神官" sheetId="15" r:id="rId14"/>
+    <sheet name="16祈祷" sheetId="13" r:id="rId15"/>
+    <sheet name="21勇者" sheetId="11" r:id="rId16"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="175">
   <si>
     <t>消息名称</t>
   </si>
@@ -596,6 +599,202 @@
   </si>
   <si>
     <t>威力赐福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣启示应答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0不发动1发动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣祈福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水之神力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣契约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣领域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃牌1；弃牌2；源玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发动；目标玩家；治疗数量；源玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标玩家；弃牌；源玩家；给牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给牌-1时表示不给牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术类型；目标玩家；弃牌1；弃牌2；源玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术类型0为法伤，1为治疗，-1不弃牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜祷言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌；目标；源头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈之光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌；源头；人数；目标1；2；3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怜悯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y/n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量；目标1；2；3；源头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣疗额外行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌；源玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惩戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌；目标玩家；源玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉耀额外行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惩戒额外行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0为不发动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光祈愈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光祈愈额外行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天枪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1114,6 +1313,329 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2">
+        <v>1001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3">
+        <v>1002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4">
+        <v>1003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5">
+        <v>1004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6">
+        <v>1005</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7">
+        <v>1006</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8">
+        <v>1007</v>
+      </c>
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="45.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2">
+        <v>1101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3">
+        <v>1102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4">
+        <v>1103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5">
+        <v>1104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6">
+        <v>1105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7">
+        <v>1106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1265,12 +1787,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1385,11 +1907,154 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="47" customWidth="1"/>
+    <col min="7" max="7" width="26.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3">
+        <v>1502</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4">
+        <v>1503</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5">
+        <v>1504</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6">
+        <v>1505</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1575,7 +2240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -2198,6 +2863,151 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2">
+        <v>601</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3">
+        <v>602</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4">
+        <v>603</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6">
+        <v>605</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7">
+        <v>606</v>
+      </c>
+      <c r="C7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -2357,12 +3167,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2469,12 +3279,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2589,152 +3399,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="6" max="6" width="45.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2">
-        <v>1101</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3">
-        <v>1102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4">
-        <v>1103</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5">
-        <v>1104</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6">
-        <v>1105</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7">
-        <v>1106</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/角色技能通信格式.xlsx
+++ b/角色技能通信格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="3" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="01剑圣" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="178">
   <si>
     <t>消息名称</t>
   </si>
@@ -654,14 +654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目标玩家；弃牌；源玩家；给牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给牌-1时表示不给牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>法术类型；目标玩家；弃牌1；弃牌2；源玩家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -795,6 +787,26 @@
   </si>
   <si>
     <t>天枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水之神力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标玩家；弃牌；源玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给牌ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1315,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1346,138 +1358,138 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2">
         <v>1001</v>
       </c>
       <c r="C2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" t="s">
         <v>159</v>
-      </c>
-      <c r="D2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B3">
         <v>1002</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B4">
         <v>1003</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B5">
         <v>1004</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B6">
         <v>1005</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7">
         <v>1006</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B8">
         <v>1007</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B9">
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1909,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1991,7 +2003,7 @@
         <v>133</v>
       </c>
       <c r="B4">
-        <v>1503</v>
+        <v>1531</v>
       </c>
       <c r="C4" t="s">
         <v>132</v>
@@ -2000,35 +2012,32 @@
         <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="B5">
-        <v>1504</v>
+        <v>1532</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="C6" t="s">
         <v>132</v>
@@ -2037,10 +2046,27 @@
         <v>134</v>
       </c>
       <c r="F6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7">
+        <v>1505</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2900,104 +2926,104 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2">
         <v>601</v>
       </c>
       <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" t="s">
         <v>144</v>
-      </c>
-      <c r="D2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3">
         <v>602</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B4">
         <v>603</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B5">
         <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B6">
         <v>605</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B7">
         <v>606</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/角色技能通信格式.xlsx
+++ b/角色技能通信格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="3" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="01剑圣" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,18 @@
     <sheet name="10圣枪" sheetId="16" r:id="rId10"/>
     <sheet name="11元素" sheetId="10" r:id="rId11"/>
     <sheet name="12冒险" sheetId="9" r:id="rId12"/>
-    <sheet name="14仲裁" sheetId="12" r:id="rId13"/>
-    <sheet name="15神官" sheetId="15" r:id="rId14"/>
-    <sheet name="16祈祷" sheetId="13" r:id="rId15"/>
-    <sheet name="21勇者" sheetId="11" r:id="rId16"/>
+    <sheet name="13死灵" sheetId="17" r:id="rId13"/>
+    <sheet name="14仲裁" sheetId="12" r:id="rId14"/>
+    <sheet name="15神官" sheetId="15" r:id="rId15"/>
+    <sheet name="16祈祷" sheetId="13" r:id="rId16"/>
+    <sheet name="21勇者" sheetId="11" r:id="rId17"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="190">
   <si>
     <t>消息名称</t>
   </si>
@@ -807,6 +808,54 @@
   </si>
   <si>
     <t>给牌ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不朽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌；源玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡之触</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墓碑陨落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标；源；治疗数目；卡片数；卡牌1-n(:分割）；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1651,7 +1700,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1800,6 +1849,107 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3">
+        <v>1302</v>
+      </c>
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4">
+        <v>1303</v>
+      </c>
+      <c r="F4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5">
+        <v>1304</v>
+      </c>
+      <c r="C5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1919,11 +2069,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2076,7 +2226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -2266,7 +2416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>

--- a/角色技能通信格式.xlsx
+++ b/角色技能通信格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="3" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="01剑圣" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,18 @@
     <sheet name="10圣枪" sheetId="16" r:id="rId10"/>
     <sheet name="11元素" sheetId="10" r:id="rId11"/>
     <sheet name="12冒险" sheetId="9" r:id="rId12"/>
-    <sheet name="14仲裁" sheetId="12" r:id="rId13"/>
-    <sheet name="15神官" sheetId="15" r:id="rId14"/>
-    <sheet name="16祈祷" sheetId="13" r:id="rId15"/>
-    <sheet name="21勇者" sheetId="11" r:id="rId16"/>
+    <sheet name="13死灵" sheetId="17" r:id="rId13"/>
+    <sheet name="14仲裁" sheetId="12" r:id="rId14"/>
+    <sheet name="15神官" sheetId="15" r:id="rId15"/>
+    <sheet name="16祈祷" sheetId="13" r:id="rId16"/>
+    <sheet name="21勇者" sheetId="11" r:id="rId17"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="190">
   <si>
     <t>消息名称</t>
   </si>
@@ -807,6 +808,54 @@
   </si>
   <si>
     <t>给牌ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不朽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌；源玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡之触</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墓碑陨落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标；源；治疗数目；卡片数:卡牌1-n(:分割）；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1651,7 +1700,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1800,6 +1849,107 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3">
+        <v>1302</v>
+      </c>
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4">
+        <v>1303</v>
+      </c>
+      <c r="F4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5">
+        <v>1304</v>
+      </c>
+      <c r="C5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1919,11 +2069,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2076,7 +2226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -2266,7 +2416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>

--- a/角色技能通信格式.xlsx
+++ b/角色技能通信格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="2" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="01剑圣" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,15 @@
     <sheet name="14仲裁" sheetId="12" r:id="rId14"/>
     <sheet name="15神官" sheetId="15" r:id="rId15"/>
     <sheet name="16祈祷" sheetId="13" r:id="rId16"/>
-    <sheet name="21勇者" sheetId="11" r:id="rId17"/>
+    <sheet name="17贤者" sheetId="18" r:id="rId17"/>
+    <sheet name="21勇者" sheetId="11" r:id="rId18"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="201">
   <si>
     <t>消息名称</t>
   </si>
@@ -856,6 +857,71 @@
   </si>
   <si>
     <t>目标；源；治疗数目；卡片数:卡牌1-n(:分割）；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>广播</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单播</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术反弹1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术反弹2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标；源；卡牌数；卡牌1；卡牌2；。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔道法典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标；源；卡片数；卡牌1-n(:分割）；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣洁法典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源；卡牌数；治疗目标数；卡牌1-n；目标1-n；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1852,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2418,6 +2484,98 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2">
+        <v>1701</v>
+      </c>
+      <c r="C2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3">
+        <v>1751</v>
+      </c>
+      <c r="F3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4">
+        <v>1702</v>
+      </c>
+      <c r="F4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5">
+        <v>1703</v>
+      </c>
+      <c r="F5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/角色技能通信格式.xlsx
+++ b/角色技能通信格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="2" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="2" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="01剑圣" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,15 @@
     <sheet name="15神官" sheetId="15" r:id="rId15"/>
     <sheet name="16祈祷" sheetId="13" r:id="rId16"/>
     <sheet name="17贤者" sheetId="18" r:id="rId17"/>
-    <sheet name="21勇者" sheetId="11" r:id="rId18"/>
+    <sheet name="20格斗" sheetId="19" r:id="rId18"/>
+    <sheet name="21勇者" sheetId="11" r:id="rId19"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="211">
   <si>
     <t>消息名称</t>
   </si>
@@ -922,6 +923,46 @@
   </si>
   <si>
     <t>源；卡牌数；治疗目标数；卡牌1-n；目标1-n；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍炎蓄力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag1;flag2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag1:0不发动1发动;flag2:0蓄力，1苍炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>念弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag;target;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百式幻龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0不发动1发动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗神天驱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag;牌ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2486,8 +2527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2575,6 +2616,108 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
+    <col min="7" max="7" width="40.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2">
+        <v>2001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3">
+        <v>2002</v>
+      </c>
+      <c r="D3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4">
+        <v>2003</v>
+      </c>
+      <c r="D4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5">
+        <v>2004</v>
+      </c>
+      <c r="D5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>

--- a/角色技能通信格式.xlsx
+++ b/角色技能通信格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="2" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="8" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="01剑圣" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="16祈祷" sheetId="13" r:id="rId16"/>
     <sheet name="17贤者" sheetId="18" r:id="rId17"/>
     <sheet name="21勇者" sheetId="11" r:id="rId18"/>
+    <sheet name="23巫女" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="224">
   <si>
     <t>消息名称</t>
   </si>
@@ -922,6 +923,98 @@
   </si>
   <si>
     <t>源；卡牌数；治疗目标数；卡牌1-n；目标1-n；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同生共死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标；源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血之哀伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">client </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标-1为取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag；目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入普通形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入流血形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源；卡牌1；卡牌2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血之悲鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标；卡牌；伤害；源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血之诅咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标；源；卡牌数量；卡牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2486,7 +2579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -2579,7 +2672,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2724,6 +2817,162 @@
       </c>
       <c r="F7" t="s">
         <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="25.875" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2">
+        <v>2301</v>
+      </c>
+      <c r="C2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3">
+        <v>2302</v>
+      </c>
+      <c r="C3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7">
+        <v>2303</v>
+      </c>
+      <c r="C7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8">
+        <v>2304</v>
+      </c>
+      <c r="C8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9">
+        <v>2305</v>
+      </c>
+      <c r="C9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/角色技能通信格式.xlsx
+++ b/角色技能通信格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="9" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="11" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="01剑圣" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="20格斗" sheetId="19" r:id="rId18"/>
     <sheet name="21勇者" sheetId="11" r:id="rId19"/>
     <sheet name="23巫女" sheetId="20" r:id="rId20"/>
+    <sheet name="26红莲骑士" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="245">
   <si>
     <t>消息名称</t>
   </si>
@@ -1025,6 +1026,62 @@
   </si>
   <si>
     <t>目标；源；卡牌数量；卡牌</t>
+  </si>
+  <si>
+    <t>猩红圣约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血腥祷言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀戮盛宴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒骄戒躁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猩红十字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag；目标1；治疗数；目标2；治疗数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标ID；源ID；卡牌1；卡牌2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1428,7 +1485,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2399,7 +2456,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3044,8 +3101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3183,6 +3240,137 @@
       </c>
       <c r="F9" t="s">
         <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="28.625" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3">
+        <v>2801</v>
+      </c>
+      <c r="C3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5">
+        <v>2802</v>
+      </c>
+      <c r="C5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6">
+        <v>2803</v>
+      </c>
+      <c r="C6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/角色技能通信格式.xlsx
+++ b/角色技能通信格式.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="2" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="4" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="01剑圣" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,15 @@
     <sheet name="15神官" sheetId="15" r:id="rId15"/>
     <sheet name="16祈祷" sheetId="13" r:id="rId16"/>
     <sheet name="17贤者" sheetId="18" r:id="rId17"/>
-    <sheet name="21勇者" sheetId="11" r:id="rId18"/>
+    <sheet name="18灵符" sheetId="19" r:id="rId18"/>
+    <sheet name="21勇者" sheetId="11" r:id="rId19"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="231">
   <si>
     <t>消息名称</t>
   </si>
@@ -924,12 +925,132 @@
     <t>源；卡牌数；治疗目标数；卡牌1-n；目标1-n；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>念咒回应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵符-雷鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵符-风行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵力崩解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0水晶，1宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌id；目标id1；目标id2；源id；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag；牌id；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0不发动，1发动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag；能量；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百鬼夜行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag；cardID；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选盖牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火妖力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百鬼夜行（火）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag；目标id1；目标id2；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0不展示，1展示；若不展示火妖力，则目标id2为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百鬼夜行（普）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通妖力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标id；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百鬼夜行（火）询问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百鬼夜行（普）询问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通妖力，询问目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火妖力，询问是否展示以及目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1037,7 +1158,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1111,7 +1232,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1146,7 +1266,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1322,14 +1441,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
@@ -1337,7 +1457,7 @@
     <col min="7" max="7" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1360,7 +1480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1380,7 +1500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1397,7 +1517,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1414,7 +1534,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -1439,16 +1559,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1471,7 +1592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -1488,7 +1609,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -1505,7 +1626,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -1522,7 +1643,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -1539,7 +1660,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -1559,7 +1680,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -1576,7 +1697,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -1593,7 +1714,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>172</v>
       </c>
@@ -1614,19 +1735,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="6" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1649,7 +1771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1669,7 +1791,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1686,7 +1808,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -1703,7 +1825,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -1720,7 +1842,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -1737,7 +1859,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -1762,21 +1884,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="48.5" customWidth="1"/>
     <col min="7" max="7" width="45.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1799,7 +1922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1816,7 +1939,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1836,7 +1959,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1856,7 +1979,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -1873,7 +1996,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -1890,7 +2013,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -1915,16 +2038,17 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1947,7 +2071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -1964,7 +2088,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -1981,7 +2105,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -1992,7 +2116,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -2016,20 +2140,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="6" width="25.75" customWidth="1"/>
     <col min="7" max="7" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2052,7 +2177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -2072,7 +2197,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -2092,7 +2217,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -2109,7 +2234,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -2136,14 +2261,15 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
@@ -2154,7 +2280,7 @@
     <col min="7" max="7" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2177,7 +2303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -2197,7 +2323,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -2214,7 +2340,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>133</v>
       </c>
@@ -2231,7 +2357,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>173</v>
       </c>
@@ -2248,7 +2374,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -2265,7 +2391,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -2293,21 +2419,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="6" max="6" width="33.625" customWidth="1"/>
     <col min="7" max="7" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2330,7 +2457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -2350,7 +2477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -2367,7 +2494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2384,7 +2511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2401,7 +2528,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -2418,7 +2545,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -2438,7 +2565,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -2455,7 +2582,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>124</v>
       </c>
@@ -2483,19 +2610,20 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="6" width="40.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2518,7 +2646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -2535,7 +2663,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>195</v>
       </c>
@@ -2546,7 +2674,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -2557,7 +2685,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>199</v>
       </c>
@@ -2575,21 +2703,238 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
+    <col min="6" max="6" width="28.625" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2">
+        <v>1801</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3">
+        <v>1802</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4">
+        <v>1803</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5">
+        <v>1804</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6">
+        <v>1805</v>
+      </c>
+      <c r="C6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7">
+        <v>180501</v>
+      </c>
+      <c r="C7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8">
+        <v>180502</v>
+      </c>
+      <c r="C8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9">
+        <v>180503</v>
+      </c>
+      <c r="C9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10">
+        <v>180504</v>
+      </c>
+      <c r="C10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="25.875" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2612,7 +2957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -2632,7 +2977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -2652,7 +2997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -2672,7 +3017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -2689,7 +3034,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -2709,7 +3054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -2733,20 +3078,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2769,7 +3115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2789,7 +3135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2809,7 +3155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2837,21 +3183,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="8" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2874,7 +3221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2894,7 +3241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2914,7 +3261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2931,7 +3278,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2951,7 +3298,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -2976,14 +3323,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -2993,7 +3341,7 @@
     <col min="7" max="7" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="57.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3016,7 +3364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -3033,7 +3381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -3053,7 +3401,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -3073,7 +3421,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -3098,21 +3446,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="7" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3135,7 +3484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3152,7 +3501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3169,7 +3518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3196,20 +3545,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3232,7 +3582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -3249,7 +3599,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -3266,7 +3616,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -3283,7 +3633,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -3300,7 +3650,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -3317,7 +3667,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -3341,21 +3691,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="45.75" customWidth="1"/>
     <col min="7" max="7" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3378,7 +3729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -3395,7 +3746,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -3412,7 +3763,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3429,7 +3780,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -3449,7 +3800,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -3469,7 +3820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3477,7 +3828,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -3502,21 +3853,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
     <col min="7" max="7" width="33.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3539,7 +3891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -3556,7 +3908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -3573,7 +3925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -3590,7 +3942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -3614,14 +3966,15 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="5" max="5" width="5.375" customWidth="1"/>
@@ -3629,7 +3982,7 @@
     <col min="7" max="7" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3652,7 +4005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -3672,7 +4025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -3692,7 +4045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -3709,7 +4062,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>67</v>
       </c>

--- a/角色技能通信格式.xlsx
+++ b/角色技能通信格式.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="11" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="01剑圣" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,18 @@
     <sheet name="15神官" sheetId="15" r:id="rId15"/>
     <sheet name="16祈祷" sheetId="13" r:id="rId16"/>
     <sheet name="17贤者" sheetId="18" r:id="rId17"/>
-    <sheet name="20格斗" sheetId="19" r:id="rId18"/>
-    <sheet name="21勇者" sheetId="11" r:id="rId19"/>
-    <sheet name="23巫女" sheetId="20" r:id="rId20"/>
-    <sheet name="26红莲骑士" sheetId="21" r:id="rId21"/>
+    <sheet name="18灵符" sheetId="22" r:id="rId18"/>
+    <sheet name="20格斗" sheetId="19" r:id="rId19"/>
+    <sheet name="21勇者" sheetId="11" r:id="rId20"/>
+    <sheet name="23巫女" sheetId="20" r:id="rId21"/>
+    <sheet name="26红莲骑士" sheetId="21" r:id="rId22"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="262">
   <si>
     <t>消息名称</t>
   </si>
@@ -1083,12 +1084,80 @@
     <t>目标ID；源ID；卡牌1；卡牌2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>念咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag；卡牌id；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵符-雷鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌id；目标1id；目标2id；源id；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵符-风行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵力崩解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag；能量；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百鬼夜行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百鬼夜行-火妖力-询问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖力为火时，询问是否展示以及目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百鬼夜行-火妖力-回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag；目标1id；目标2id；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百鬼夜行-普妖力-询问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询问目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百鬼夜行-普妖力-回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标id；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1196,7 +1265,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1270,7 +1339,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1305,7 +1373,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1481,14 +1548,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
@@ -1496,7 +1563,7 @@
     <col min="7" max="7" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1519,7 +1586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1539,7 +1606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1556,7 +1623,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1573,7 +1640,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -1598,16 +1665,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1630,7 +1697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -1647,7 +1714,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -1664,7 +1731,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -1681,7 +1748,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -1698,7 +1765,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -1718,7 +1785,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -1735,7 +1802,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -1752,7 +1819,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>172</v>
       </c>
@@ -1773,19 +1840,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="6" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1808,7 +1875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1828,7 +1895,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1845,7 +1912,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -1862,7 +1929,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -1879,7 +1946,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -1896,7 +1963,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -1921,21 +1988,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="48.5" customWidth="1"/>
     <col min="7" max="7" width="45.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1958,7 +2025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1975,7 +2042,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1995,7 +2062,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -2015,7 +2082,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -2032,7 +2099,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -2049,7 +2116,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -2074,16 +2141,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2106,7 +2173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -2123,7 +2190,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2140,7 +2207,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -2151,7 +2218,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -2175,20 +2242,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="6" width="25.75" customWidth="1"/>
     <col min="7" max="7" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2211,7 +2278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -2231,7 +2298,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -2251,7 +2318,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -2268,7 +2335,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -2295,14 +2362,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
@@ -2313,7 +2380,7 @@
     <col min="7" max="7" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2336,7 +2403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -2356,7 +2423,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -2373,7 +2440,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>133</v>
       </c>
@@ -2390,7 +2457,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>173</v>
       </c>
@@ -2407,7 +2474,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -2424,7 +2491,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -2452,21 +2519,21 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="6" max="6" width="33.625" customWidth="1"/>
     <col min="7" max="7" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2489,7 +2556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -2509,7 +2576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -2526,7 +2593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2543,7 +2610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2560,7 +2627,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -2577,7 +2644,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -2597,7 +2664,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -2614,7 +2681,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>124</v>
       </c>
@@ -2642,19 +2709,19 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="6" width="40.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2677,7 +2744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -2694,7 +2761,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>195</v>
       </c>
@@ -2705,7 +2772,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -2716,7 +2783,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>199</v>
       </c>
@@ -2734,20 +2801,21 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="6" max="6" width="21.375" customWidth="1"/>
-    <col min="7" max="7" width="40.125" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="5" max="5" width="39.5" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2770,63 +2838,157 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="B2">
-        <v>2001</v>
+        <v>1801</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="B3">
-        <v>2002</v>
+        <v>1802</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="B4">
-        <v>2003</v>
+        <v>1803</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
-      </c>
-      <c r="G4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="B5">
-        <v>2004</v>
+        <v>1804</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>210</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6">
+        <v>1805</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7">
+        <v>180501</v>
+      </c>
+      <c r="C7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8">
+        <v>180502</v>
+      </c>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9">
+        <v>180503</v>
+      </c>
+      <c r="C9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10">
+        <v>180504</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2836,21 +2998,20 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="25.875" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
+    <col min="7" max="7" width="40.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2873,118 +3034,63 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="B2">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+        <v>2001</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="B3">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+        <v>2002</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="B4">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+        <v>2003</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="B5">
-        <v>2101</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
+        <v>2004</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6">
-        <v>2102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7">
-        <v>2103</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>110</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2994,20 +3100,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3030,7 +3136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3050,7 +3156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3070,7 +3176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3098,148 +3204,155 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="25.875" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="B2">
-        <v>2301</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="B3">
-        <v>2302</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>219</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+      <c r="B4">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+      <c r="B5">
+        <v>2101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+      <c r="B6">
+        <v>2102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="B7">
-        <v>2303</v>
+        <v>2103</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8">
-        <v>2304</v>
-      </c>
-      <c r="C8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B9">
-        <v>2305</v>
-      </c>
-      <c r="C9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" t="s">
-        <v>215</v>
-      </c>
-      <c r="F9" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3249,14 +3362,165 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2">
+        <v>2301</v>
+      </c>
+      <c r="C2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3">
+        <v>2302</v>
+      </c>
+      <c r="C3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7">
+        <v>2303</v>
+      </c>
+      <c r="C7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8">
+        <v>2304</v>
+      </c>
+      <c r="C8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9">
+        <v>2305</v>
+      </c>
+      <c r="C9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
@@ -3265,7 +3529,7 @@
     <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3288,7 +3552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>231</v>
       </c>
@@ -3305,7 +3569,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>235</v>
       </c>
@@ -3322,7 +3586,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>236</v>
       </c>
@@ -3339,7 +3603,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>237</v>
       </c>
@@ -3356,7 +3620,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>238</v>
       </c>
@@ -3380,21 +3644,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="8" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3417,7 +3681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3437,7 +3701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3457,7 +3721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3474,7 +3738,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -3494,7 +3758,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -3519,14 +3783,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -3536,7 +3800,7 @@
     <col min="7" max="7" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="57.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3559,7 +3823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -3576,7 +3840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -3596,7 +3860,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -3616,7 +3880,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -3641,21 +3905,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="7" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3678,7 +3942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3695,7 +3959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3712,7 +3976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3739,20 +4003,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3775,7 +4039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -3792,7 +4056,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -3809,7 +4073,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -3826,7 +4090,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -3843,7 +4107,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -3860,7 +4124,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -3884,21 +4148,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="45.75" customWidth="1"/>
     <col min="7" max="7" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3921,7 +4185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -3938,7 +4202,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -3955,7 +4219,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3972,7 +4236,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -3992,7 +4256,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -4012,7 +4276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -4020,7 +4284,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -4045,21 +4309,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
     <col min="7" max="7" width="33.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4082,7 +4346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -4099,7 +4363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -4116,7 +4380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -4133,7 +4397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -4157,14 +4421,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="5" max="5" width="5.375" customWidth="1"/>
@@ -4172,7 +4436,7 @@
     <col min="7" max="7" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4195,7 +4459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -4215,7 +4479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -4235,7 +4499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -4252,7 +4516,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>67</v>
       </c>

--- a/角色技能通信格式.xlsx
+++ b/角色技能通信格式.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="11" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="01剑圣" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,15 @@
     <sheet name="20格斗" sheetId="19" r:id="rId19"/>
     <sheet name="21勇者" sheetId="11" r:id="rId20"/>
     <sheet name="23巫女" sheetId="20" r:id="rId21"/>
-    <sheet name="26红莲骑士" sheetId="21" r:id="rId22"/>
+    <sheet name="24蝶舞者" sheetId="23" r:id="rId22"/>
+    <sheet name="26红莲骑士" sheetId="21" r:id="rId23"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="285">
   <si>
     <t>消息名称</t>
   </si>
@@ -1152,12 +1153,104 @@
     <t>目标id；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>舞动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源；卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌-1为选择摸牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝圣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜花水月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凋零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag；源；目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag；源；卡牌1；卡牌2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag；源；卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛹化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒逆之蝶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃牌1；弃牌2；flag；源；目标；茧1；茧2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag 1 伤害 2茧移蛹 3自伤移蛹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag；源；卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1265,7 +1358,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1339,6 +1432,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1373,6 +1467,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1548,14 +1643,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
@@ -1563,7 +1658,7 @@
     <col min="7" max="7" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1586,7 +1681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1606,7 +1701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1623,7 +1718,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1640,7 +1735,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -1665,16 +1760,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1697,7 +1792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -1714,7 +1809,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -1731,7 +1826,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -1748,7 +1843,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -1765,7 +1860,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -1785,7 +1880,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -1802,7 +1897,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -1819,7 +1914,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>172</v>
       </c>
@@ -1840,19 +1935,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1875,7 +1970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1895,7 +1990,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1912,7 +2007,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -1929,7 +2024,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -1946,7 +2041,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -1963,7 +2058,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -1988,21 +2083,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="48.5" customWidth="1"/>
     <col min="7" max="7" width="45.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2025,7 +2120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -2042,7 +2137,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2062,7 +2157,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -2082,7 +2177,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -2099,7 +2194,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -2116,7 +2211,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -2141,16 +2236,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2173,7 +2268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -2190,7 +2285,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2207,7 +2302,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -2218,7 +2313,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -2242,20 +2337,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="25.75" customWidth="1"/>
     <col min="7" max="7" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2278,7 +2373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -2298,7 +2393,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -2318,7 +2413,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -2335,7 +2430,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -2362,14 +2457,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
@@ -2380,7 +2475,7 @@
     <col min="7" max="7" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2403,7 +2498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -2423,7 +2518,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -2440,7 +2535,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>133</v>
       </c>
@@ -2457,7 +2552,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>173</v>
       </c>
@@ -2474,7 +2569,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -2491,7 +2586,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -2519,21 +2614,21 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="6" max="6" width="33.625" customWidth="1"/>
     <col min="7" max="7" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2556,7 +2651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -2576,7 +2671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -2593,7 +2688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2610,7 +2705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2627,7 +2722,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -2644,7 +2739,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -2664,7 +2759,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -2681,7 +2776,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>124</v>
       </c>
@@ -2709,19 +2804,19 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="40.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2744,7 +2839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -2761,7 +2856,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>195</v>
       </c>
@@ -2772,7 +2867,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -2783,7 +2878,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>199</v>
       </c>
@@ -2801,21 +2896,21 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="39.5" customWidth="1"/>
     <col min="6" max="6" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2838,7 +2933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>245</v>
       </c>
@@ -2855,7 +2950,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>247</v>
       </c>
@@ -2872,7 +2967,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>249</v>
       </c>
@@ -2889,7 +2984,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>250</v>
       </c>
@@ -2906,7 +3001,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>252</v>
       </c>
@@ -2923,7 +3018,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>253</v>
       </c>
@@ -2940,7 +3035,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>256</v>
       </c>
@@ -2957,7 +3052,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>258</v>
       </c>
@@ -2974,7 +3069,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>260</v>
       </c>
@@ -2998,20 +3093,20 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="21.375" customWidth="1"/>
     <col min="7" max="7" width="40.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3034,7 +3129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -3051,7 +3146,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>205</v>
       </c>
@@ -3065,7 +3160,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>207</v>
       </c>
@@ -3079,7 +3174,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>209</v>
       </c>
@@ -3100,20 +3195,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3136,7 +3231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3156,7 +3251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3176,7 +3271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3204,21 +3299,21 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="25.875" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3241,7 +3336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -3261,7 +3356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -3281,7 +3376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -3301,7 +3396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -3318,7 +3413,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -3338,7 +3433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -3362,16 +3457,16 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3394,7 +3489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -3411,7 +3506,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>217</v>
       </c>
@@ -3431,7 +3526,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>221</v>
       </c>
@@ -3439,7 +3534,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>223</v>
       </c>
@@ -3447,7 +3542,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>224</v>
       </c>
@@ -3455,7 +3550,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>225</v>
       </c>
@@ -3472,7 +3567,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>227</v>
       </c>
@@ -3489,7 +3584,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>229</v>
       </c>
@@ -3513,14 +3608,169 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="39.5" customWidth="1"/>
+    <col min="7" max="7" width="23.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2">
+        <v>2401</v>
+      </c>
+      <c r="C2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3">
+        <v>2402</v>
+      </c>
+      <c r="C3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4">
+        <v>2403</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5">
+        <v>2404</v>
+      </c>
+      <c r="F5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6">
+        <v>2405</v>
+      </c>
+      <c r="F6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7">
+        <v>2406</v>
+      </c>
+      <c r="C7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8">
+        <v>2407</v>
+      </c>
+      <c r="C8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
@@ -3529,7 +3779,7 @@
     <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3552,7 +3802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>231</v>
       </c>
@@ -3569,7 +3819,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>235</v>
       </c>
@@ -3586,7 +3836,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>236</v>
       </c>
@@ -3603,7 +3853,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>237</v>
       </c>
@@ -3620,7 +3870,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>238</v>
       </c>
@@ -3644,21 +3894,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="8" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3681,7 +3931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3701,7 +3951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3721,7 +3971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3738,7 +3988,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -3758,7 +4008,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -3783,14 +4033,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -3800,7 +4050,7 @@
     <col min="7" max="7" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="57.75" thickBot="1">
+    <row r="1" spans="1:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3823,7 +4073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -3840,7 +4090,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -3860,7 +4110,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -3880,7 +4130,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -3905,21 +4155,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="7" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3942,7 +4192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3959,7 +4209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3976,7 +4226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -4003,20 +4253,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4039,7 +4289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -4056,7 +4306,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -4073,7 +4323,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -4090,7 +4340,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -4107,7 +4357,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -4124,7 +4374,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -4148,21 +4398,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="45.75" customWidth="1"/>
     <col min="7" max="7" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4185,7 +4435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -4202,7 +4452,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -4219,7 +4469,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4236,7 +4486,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -4256,7 +4506,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -4276,7 +4526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -4284,7 +4534,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -4309,21 +4559,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
     <col min="7" max="7" width="33.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4346,7 +4596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -4363,7 +4613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -4380,7 +4630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -4397,7 +4647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -4421,14 +4671,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="5" max="5" width="5.375" customWidth="1"/>
@@ -4436,7 +4686,7 @@
     <col min="7" max="7" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4459,7 +4709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -4479,7 +4729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -4499,7 +4749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -4516,7 +4766,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>67</v>
       </c>

--- a/角色技能通信格式.xlsx
+++ b/角色技能通信格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="12" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="14" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="01剑圣" sheetId="1" r:id="rId1"/>
@@ -29,14 +29,15 @@
     <sheet name="21勇者" sheetId="11" r:id="rId20"/>
     <sheet name="23巫女" sheetId="20" r:id="rId21"/>
     <sheet name="24蝶舞者" sheetId="23" r:id="rId22"/>
-    <sheet name="26红莲骑士" sheetId="21" r:id="rId23"/>
+    <sheet name="26魔弓" sheetId="25" r:id="rId23"/>
+    <sheet name="28红莲骑士" sheetId="21" r:id="rId24"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="307">
   <si>
     <t>消息名称</t>
   </si>
@@ -377,10 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>虚拟牌ID;目标玩家ID;源玩家ID;牌数目；牌ID1;ID2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>flag;源玩家ID;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1239,6 +1236,102 @@
   </si>
   <si>
     <t>flag0摸牌1弃牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔贯冲击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟牌ID;目标玩家ID;源玩家ID;牌数目；牌ID1;ID2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击牌ID;目标玩家ID;源玩家ID;使用盖牌ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔贯冲击命中询问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag；使用盖牌ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷光散射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标玩家ID;源玩家ID；牌数目；牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟牌ID;目标玩家ID;源玩家ID;使用盖牌ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充能/魔眼询问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标玩家-1为摸牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多重射击发动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2；目标玩家；源玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充能盖牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌数；牌；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔眼盖牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;弃牌数；弃牌n:；摸牌数；源玩家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1711,7 +1804,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -1728,12 +1821,12 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5">
         <v>103</v>
@@ -1745,7 +1838,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1790,138 +1883,138 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2">
         <v>1001</v>
       </c>
       <c r="C2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" t="s">
         <v>157</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>158</v>
-      </c>
-      <c r="F2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3">
         <v>1002</v>
       </c>
       <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" t="s">
         <v>161</v>
-      </c>
-      <c r="D3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4">
         <v>1003</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5">
         <v>1004</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6">
         <v>1005</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" t="s">
         <v>167</v>
-      </c>
-      <c r="G6" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7">
         <v>1006</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8">
         <v>1007</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9">
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1968,7 +2061,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>1101</v>
@@ -1980,15 +2073,15 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>1102</v>
@@ -2000,12 +2093,12 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4">
         <v>1103</v>
@@ -2017,12 +2110,12 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5">
         <v>1104</v>
@@ -2034,12 +2127,12 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>1105</v>
@@ -2051,12 +2144,12 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>1106</v>
@@ -2068,7 +2161,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +2176,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2130,7 +2223,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -2147,7 +2240,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
@@ -2167,7 +2260,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
         <v>47</v>
@@ -2187,12 +2280,12 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6">
         <v>1205</v>
@@ -2204,12 +2297,12 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7">
         <v>1206</v>
@@ -2221,7 +2314,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2266,64 +2359,64 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2">
         <v>36</v>
       </c>
       <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" t="s">
         <v>179</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>180</v>
-      </c>
-      <c r="F2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3">
         <v>1302</v>
       </c>
       <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" t="s">
         <v>183</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>184</v>
-      </c>
-      <c r="F3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4">
         <v>1303</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5">
         <v>1304</v>
       </c>
       <c r="C5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" t="s">
         <v>183</v>
       </c>
-      <c r="D5" t="s">
-        <v>184</v>
-      </c>
       <c r="F5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2357,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -2371,79 +2464,79 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2">
         <v>1401</v>
       </c>
       <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
         <v>89</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>90</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>91</v>
-      </c>
-      <c r="G2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>1402</v>
       </c>
       <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
         <v>94</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>95</v>
       </c>
-      <c r="F3" t="s">
-        <v>96</v>
-      </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4">
         <v>1403</v>
       </c>
       <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
         <v>94</v>
       </c>
-      <c r="D4" t="s">
-        <v>95</v>
-      </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5">
         <v>1404</v>
       </c>
       <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
         <v>94</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>95</v>
       </c>
-      <c r="F5" t="s">
-        <v>96</v>
-      </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2496,110 +2589,110 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2">
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
         <v>128</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>129</v>
-      </c>
-      <c r="G2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3">
         <v>1502</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4">
         <v>1531</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5">
         <v>1532</v>
       </c>
       <c r="C5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" t="s">
         <v>174</v>
       </c>
-      <c r="D5" t="s">
-        <v>175</v>
-      </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6">
         <v>1504</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7">
         <v>1505</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" t="s">
         <v>139</v>
-      </c>
-      <c r="G7" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2649,7 +2742,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2">
         <v>1601</v>
@@ -2669,7 +2762,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>1602</v>
@@ -2686,7 +2779,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4">
         <v>1603</v>
@@ -2703,7 +2796,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5">
         <v>1604</v>
@@ -2715,12 +2808,12 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6">
         <v>1605</v>
@@ -2732,12 +2825,12 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7">
         <v>1606</v>
@@ -2757,24 +2850,24 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8">
         <v>1607</v>
       </c>
       <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
         <v>122</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9">
         <v>1608</v>
@@ -2823,7 +2916,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -2837,52 +2930,52 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B2">
         <v>1701</v>
       </c>
       <c r="C2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" t="s">
         <v>192</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>193</v>
-      </c>
-      <c r="F2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3">
         <v>1751</v>
       </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4">
         <v>1702</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5">
         <v>1703</v>
       </c>
       <c r="F5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2931,155 +3024,155 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2">
         <v>1801</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3">
         <v>1802</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B4">
         <v>1803</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B5">
         <v>1804</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6">
         <v>1805</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7">
         <v>180501</v>
       </c>
       <c r="C7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>254</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B8">
         <v>180502</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B9">
         <v>180503</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B10">
         <v>180504</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3127,61 +3220,61 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2">
         <v>2001</v>
       </c>
       <c r="D2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" t="s">
         <v>202</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>203</v>
-      </c>
-      <c r="G2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B3">
         <v>2002</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4">
         <v>2003</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5">
         <v>2004</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3334,7 +3427,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -3354,7 +3447,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>36</v>
@@ -3374,7 +3467,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>36</v>
@@ -3394,7 +3487,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>2101</v>
@@ -3406,12 +3499,12 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>2102</v>
@@ -3431,7 +3524,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7">
         <v>2103</v>
@@ -3443,7 +3536,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3467,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -3487,114 +3580,114 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B2">
         <v>2301</v>
       </c>
       <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" t="s">
         <v>214</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>215</v>
-      </c>
-      <c r="F2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3">
         <v>2302</v>
       </c>
       <c r="C3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" t="s">
         <v>218</v>
       </c>
-      <c r="D3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>219</v>
-      </c>
-      <c r="G3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" t="s">
         <v>221</v>
-      </c>
-      <c r="B4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B7">
         <v>2303</v>
       </c>
       <c r="C7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" t="s">
         <v>214</v>
       </c>
-      <c r="D7" t="s">
-        <v>215</v>
-      </c>
       <c r="F7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B8">
         <v>2304</v>
       </c>
       <c r="C8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" t="s">
         <v>214</v>
       </c>
-      <c r="D8" t="s">
-        <v>215</v>
-      </c>
       <c r="F8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9">
         <v>2305</v>
       </c>
       <c r="C9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" t="s">
         <v>214</v>
       </c>
-      <c r="D9" t="s">
-        <v>215</v>
-      </c>
       <c r="F9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3607,7 +3700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -3627,19 +3720,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -3647,109 +3740,109 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2">
         <v>2401</v>
       </c>
       <c r="C2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" t="s">
         <v>263</v>
       </c>
-      <c r="D2" t="s">
-        <v>264</v>
-      </c>
       <c r="F2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B3">
         <v>2402</v>
       </c>
       <c r="C3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B4">
         <v>2403</v>
       </c>
       <c r="F4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B5">
         <v>2404</v>
       </c>
       <c r="F5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B6">
         <v>2405</v>
       </c>
       <c r="F6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B7">
         <v>2406</v>
       </c>
       <c r="C7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" t="s">
         <v>274</v>
       </c>
-      <c r="D7" t="s">
-        <v>275</v>
-      </c>
       <c r="F7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B8">
         <v>2407</v>
       </c>
       <c r="C8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" t="s">
         <v>277</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>278</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>279</v>
-      </c>
-      <c r="G8" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3759,6 +3852,181 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="25.75" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2">
+        <v>2601</v>
+      </c>
+      <c r="C2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3">
+        <v>2602</v>
+      </c>
+      <c r="C3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4">
+        <v>2603</v>
+      </c>
+      <c r="C4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5">
+        <v>2605</v>
+      </c>
+      <c r="C5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6">
+        <v>2606</v>
+      </c>
+      <c r="C6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8">
+        <v>2607</v>
+      </c>
+      <c r="C8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9">
+        <v>2608</v>
+      </c>
+      <c r="C9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -3780,19 +4048,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -3800,87 +4068,87 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B2">
         <v>36</v>
       </c>
       <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="s">
         <v>232</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>233</v>
-      </c>
-      <c r="F2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B3">
         <v>2801</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B4">
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B5">
         <v>2802</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B6">
         <v>2803</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3981,7 +4249,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -4006,7 +4274,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6">
         <v>304</v>
@@ -4018,7 +4286,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4287,104 +4555,104 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2">
         <v>601</v>
       </c>
       <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
         <v>142</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>143</v>
-      </c>
-      <c r="F2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3">
         <v>602</v>
       </c>
       <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" t="s">
         <v>146</v>
-      </c>
-      <c r="D3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4">
         <v>603</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5">
         <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6">
         <v>605</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7">
         <v>606</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/角色技能通信格式.xlsx
+++ b/角色技能通信格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="14" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580" tabRatio="773" firstSheet="14" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="01剑圣" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="320">
   <si>
     <t>消息名称</t>
   </si>
@@ -1256,10 +1256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击牌ID;目标玩家ID;源玩家ID;使用盖牌ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魔贯冲击命中询问</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1381,6 +1377,14 @@
   </si>
   <si>
     <t>剑魂守护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag;使用盖牌ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag为0，不发动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3234,7 +3238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -3272,16 +3276,16 @@
         <v>1901</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -3289,16 +3293,16 @@
         <v>1902</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -3306,13 +3310,13 @@
         <v>1952</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -3320,13 +3324,13 @@
         <v>1903</v>
       </c>
       <c r="B5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -3334,13 +3338,13 @@
         <v>1904</v>
       </c>
       <c r="B6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -3348,7 +3352,7 @@
         <v>1905</v>
       </c>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -3362,7 +3366,7 @@
         <v>1906</v>
       </c>
       <c r="B8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -4048,8 +4052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4100,117 +4104,120 @@
         <v>285</v>
       </c>
       <c r="F2" t="s">
-        <v>287</v>
+        <v>318</v>
+      </c>
+      <c r="G2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B3">
         <v>2602</v>
       </c>
       <c r="C3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D3" t="s">
         <v>285</v>
       </c>
       <c r="F3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B4">
         <v>2603</v>
       </c>
       <c r="C4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D4" t="s">
         <v>285</v>
       </c>
       <c r="F4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B5">
         <v>2605</v>
       </c>
       <c r="C5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" t="s">
         <v>296</v>
       </c>
-      <c r="D5" t="s">
-        <v>297</v>
-      </c>
       <c r="F5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B6">
         <v>2606</v>
       </c>
       <c r="C6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B8">
         <v>2607</v>
       </c>
       <c r="C8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B9">
         <v>2608</v>
       </c>
       <c r="C9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
